--- a/Code/Results/Cases/Case_9_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017605350590551</v>
+        <v>1.016635419097226</v>
       </c>
       <c r="D2">
-        <v>1.037442170187239</v>
+        <v>1.03575288732521</v>
       </c>
       <c r="E2">
-        <v>1.031362134448671</v>
+        <v>1.030457342396556</v>
       </c>
       <c r="F2">
-        <v>1.041511590569705</v>
+        <v>1.040428078030258</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050810530265848</v>
+        <v>1.050070539547609</v>
       </c>
       <c r="J2">
-        <v>1.039271943718464</v>
+        <v>1.038329702382722</v>
       </c>
       <c r="K2">
-        <v>1.048403403106784</v>
+        <v>1.046735623674961</v>
       </c>
       <c r="L2">
-        <v>1.042401174199979</v>
+        <v>1.04150805904969</v>
       </c>
       <c r="M2">
-        <v>1.052421379816467</v>
+        <v>1.051351515477973</v>
       </c>
       <c r="N2">
-        <v>1.016884579787394</v>
+        <v>1.017288609664286</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.05006033402135</v>
+        <v>1.049213618686688</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045295657552665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044125111485877</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024410770819414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020810222470584</v>
+        <v>1.019737752181922</v>
       </c>
       <c r="D3">
-        <v>1.039621730207194</v>
+        <v>1.037791396029445</v>
       </c>
       <c r="E3">
-        <v>1.033822084018688</v>
+        <v>1.032823471284052</v>
       </c>
       <c r="F3">
-        <v>1.043904638696082</v>
+        <v>1.04272253622181</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051488434306285</v>
+        <v>1.050678196309523</v>
       </c>
       <c r="J3">
-        <v>1.040749219644567</v>
+        <v>1.03970443522747</v>
       </c>
       <c r="K3">
-        <v>1.049771552154602</v>
+        <v>1.047962527498475</v>
       </c>
       <c r="L3">
-        <v>1.044039748821736</v>
+        <v>1.043052912830253</v>
       </c>
       <c r="M3">
-        <v>1.054004957826422</v>
+        <v>1.052836468171885</v>
       </c>
       <c r="N3">
-        <v>1.017386163982432</v>
+        <v>1.017659023167407</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051313612451695</v>
+        <v>1.050388844268984</v>
       </c>
       <c r="Q3">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.0462603983387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044989707888383</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024643237334787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022852835039218</v>
+        <v>1.021715591252383</v>
       </c>
       <c r="D4">
-        <v>1.041014954320243</v>
+        <v>1.039095081505146</v>
       </c>
       <c r="E4">
-        <v>1.03539567265996</v>
+        <v>1.034337717079239</v>
       </c>
       <c r="F4">
-        <v>1.045436189310554</v>
+        <v>1.044191627662067</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051913543334015</v>
+        <v>1.051058692942144</v>
       </c>
       <c r="J4">
-        <v>1.041689493124424</v>
+        <v>1.040579662206767</v>
       </c>
       <c r="K4">
-        <v>1.05064233735067</v>
+        <v>1.048743494016101</v>
       </c>
       <c r="L4">
-        <v>1.045084877308312</v>
+        <v>1.044038653433819</v>
       </c>
       <c r="M4">
-        <v>1.055015504267528</v>
+        <v>1.05378442310948</v>
       </c>
       <c r="N4">
-        <v>1.017705392599032</v>
+        <v>1.017894869903031</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052113380012402</v>
+        <v>1.051139076557067</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046876993824426</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045542878821126</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024789016149033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023707008497115</v>
+        <v>1.022542804573321</v>
       </c>
       <c r="D5">
-        <v>1.041600469916312</v>
+        <v>1.039643284600516</v>
       </c>
       <c r="E5">
-        <v>1.036055525048432</v>
+        <v>1.034972857337469</v>
       </c>
       <c r="F5">
-        <v>1.046078755944069</v>
+        <v>1.044808176117924</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052091022884781</v>
+        <v>1.051217561747155</v>
       </c>
       <c r="J5">
-        <v>1.04208378171839</v>
+        <v>1.040946819034562</v>
       </c>
       <c r="K5">
-        <v>1.051008778146822</v>
+        <v>1.049072470678041</v>
       </c>
       <c r="L5">
-        <v>1.045523233831524</v>
+        <v>1.04445225532625</v>
       </c>
       <c r="M5">
-        <v>1.055439652429505</v>
+        <v>1.054182473755821</v>
       </c>
       <c r="N5">
-        <v>1.017839490324668</v>
+        <v>1.017994001057908</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052449059473297</v>
+        <v>1.051454102327697</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047143195418631</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04578330186228</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024850357468841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023853332137584</v>
+        <v>1.022684509340694</v>
       </c>
       <c r="D6">
-        <v>1.041703188662837</v>
+        <v>1.039739672350529</v>
       </c>
       <c r="E6">
-        <v>1.036169194574813</v>
+        <v>1.035082296561662</v>
       </c>
       <c r="F6">
-        <v>1.046189653978085</v>
+        <v>1.044914637888401</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052123033266354</v>
+        <v>1.051246394789308</v>
       </c>
       <c r="J6">
-        <v>1.042153019686356</v>
+        <v>1.041011408413777</v>
       </c>
       <c r="K6">
-        <v>1.051074698790081</v>
+        <v>1.049132033632832</v>
       </c>
       <c r="L6">
-        <v>1.045599719893163</v>
+        <v>1.044524503551433</v>
       </c>
       <c r="M6">
-        <v>1.055513880035751</v>
+        <v>1.05425225119555</v>
       </c>
       <c r="N6">
-        <v>1.017863331632213</v>
+        <v>1.018011669932943</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.052507804691479</v>
+        <v>1.051509325667987</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047198467052872</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045834946561552</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024861998627964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022873223542852</v>
+        <v>1.021741628005302</v>
       </c>
       <c r="D7">
-        <v>1.041035244008308</v>
+        <v>1.039119296636402</v>
       </c>
       <c r="E7">
-        <v>1.035412910781837</v>
+        <v>1.034359673427139</v>
       </c>
       <c r="F7">
-        <v>1.04545348734083</v>
+        <v>1.044212762832352</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051922369625635</v>
+        <v>1.051070171237319</v>
       </c>
       <c r="J7">
-        <v>1.041703507348153</v>
+        <v>1.040599176944826</v>
       </c>
       <c r="K7">
-        <v>1.050659561394856</v>
+        <v>1.048764592424416</v>
       </c>
       <c r="L7">
-        <v>1.045099060033803</v>
+        <v>1.044057497631733</v>
       </c>
       <c r="M7">
-        <v>1.055029787263388</v>
+        <v>1.053802496613728</v>
       </c>
       <c r="N7">
-        <v>1.017710958017225</v>
+        <v>1.01792647359635</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05212468386755</v>
+        <v>1.051153380316648</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046909093040492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045579715186125</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024795053370405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018706214948818</v>
+        <v>1.017720307059737</v>
       </c>
       <c r="D8">
-        <v>1.038197783486608</v>
+        <v>1.036474525134228</v>
       </c>
       <c r="E8">
-        <v>1.032207825164125</v>
+        <v>1.03128705359251</v>
       </c>
       <c r="F8">
-        <v>1.042334711707929</v>
+        <v>1.041230893358334</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051050480132903</v>
+        <v>1.050295818476247</v>
       </c>
       <c r="J8">
-        <v>1.039785363342506</v>
+        <v>1.038826677262266</v>
       </c>
       <c r="K8">
-        <v>1.048884054019115</v>
+        <v>1.047182092200613</v>
       </c>
       <c r="L8">
-        <v>1.042968502758595</v>
+        <v>1.042059264540571</v>
       </c>
       <c r="M8">
-        <v>1.052970214232666</v>
+        <v>1.05187989277198</v>
       </c>
       <c r="N8">
-        <v>1.017059950531559</v>
+        <v>1.017501475932887</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050494693874751</v>
+        <v>1.04963178879463</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045658207249952</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044465758561392</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024499458242527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011101720148006</v>
+        <v>1.010365583310871</v>
       </c>
       <c r="D9">
-        <v>1.033043134230867</v>
+        <v>1.031658730413159</v>
       </c>
       <c r="E9">
-        <v>1.026402839513613</v>
+        <v>1.025709859292988</v>
       </c>
       <c r="F9">
-        <v>1.03669134938169</v>
+        <v>1.0358257420654</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049398406910411</v>
+        <v>1.048812772476728</v>
       </c>
       <c r="J9">
-        <v>1.036268448190126</v>
+        <v>1.035557542080976</v>
       </c>
       <c r="K9">
-        <v>1.045621929644037</v>
+        <v>1.044258231081565</v>
       </c>
       <c r="L9">
-        <v>1.039081595762277</v>
+        <v>1.038399142502878</v>
       </c>
       <c r="M9">
-        <v>1.049215918391262</v>
+        <v>1.048363133373117</v>
       </c>
       <c r="N9">
-        <v>1.01586484175205</v>
+        <v>1.016629494844314</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047523454968467</v>
+        <v>1.046848538989067</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043348566335771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042395003008189</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023931802810018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005902841693852</v>
+        <v>1.005366512824266</v>
       </c>
       <c r="D10">
-        <v>1.029563112372037</v>
+        <v>1.028430482558579</v>
       </c>
       <c r="E10">
-        <v>1.022490542733777</v>
+        <v>1.021977150359664</v>
       </c>
       <c r="F10">
-        <v>1.03292470655733</v>
+        <v>1.032241702434974</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048253353409077</v>
+        <v>1.047796146684217</v>
       </c>
       <c r="J10">
-        <v>1.033884202911152</v>
+        <v>1.033368817538226</v>
       </c>
       <c r="K10">
-        <v>1.043418351414846</v>
+        <v>1.042304712770188</v>
       </c>
       <c r="L10">
-        <v>1.036465259537629</v>
+        <v>1.03596062311581</v>
       </c>
       <c r="M10">
-        <v>1.046723896453385</v>
+        <v>1.046052242262101</v>
       </c>
       <c r="N10">
-        <v>1.015058484609374</v>
+        <v>1.016158663388665</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.04560220058209</v>
+        <v>1.045070667451494</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041807193170002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041032109351724</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023549278736403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003997490734312</v>
+        <v>1.003557189313706</v>
       </c>
       <c r="D11">
-        <v>1.028443093123166</v>
+        <v>1.027411602848964</v>
       </c>
       <c r="E11">
-        <v>1.021250391154127</v>
+        <v>1.020819347948213</v>
       </c>
       <c r="F11">
-        <v>1.031991676599919</v>
+        <v>1.03138816706886</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047971405239557</v>
+        <v>1.047567963575422</v>
       </c>
       <c r="J11">
-        <v>1.033204909840319</v>
+        <v>1.032782730166068</v>
       </c>
       <c r="K11">
-        <v>1.042847835056834</v>
+        <v>1.041834451590066</v>
       </c>
       <c r="L11">
-        <v>1.035782382999184</v>
+        <v>1.035359039562751</v>
       </c>
       <c r="M11">
-        <v>1.046334484443934</v>
+        <v>1.045741469140115</v>
       </c>
       <c r="N11">
-        <v>1.014860310519337</v>
+        <v>1.016250904208505</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045726616703809</v>
+        <v>1.045257548960292</v>
       </c>
       <c r="Q11">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041436383008757</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.04073539553819</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023499625247345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003425772957133</v>
+        <v>1.003010421723284</v>
       </c>
       <c r="D12">
-        <v>1.028169261209699</v>
+        <v>1.027161328854013</v>
       </c>
       <c r="E12">
-        <v>1.020960844856243</v>
+        <v>1.020549774317274</v>
       </c>
       <c r="F12">
-        <v>1.031904274815274</v>
+        <v>1.031320183175257</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04794766769798</v>
+        <v>1.047556162431245</v>
       </c>
       <c r="J12">
-        <v>1.033085852249493</v>
+        <v>1.032687919298341</v>
       </c>
       <c r="K12">
-        <v>1.04277597513344</v>
+        <v>1.041786026985398</v>
       </c>
       <c r="L12">
-        <v>1.035697192318155</v>
+        <v>1.035293586129078</v>
       </c>
       <c r="M12">
-        <v>1.046444743310114</v>
+        <v>1.045870970261866</v>
       </c>
       <c r="N12">
-        <v>1.014845130505185</v>
+        <v>1.016344057896407</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04613774661126</v>
+        <v>1.045684050607675</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041385576537338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040701158974504</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023520576446947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003853715708318</v>
+        <v>1.00340089051463</v>
       </c>
       <c r="D13">
-        <v>1.028544205966334</v>
+        <v>1.027494518571786</v>
       </c>
       <c r="E13">
-        <v>1.021395060102909</v>
+        <v>1.020949556714891</v>
       </c>
       <c r="F13">
-        <v>1.032480864951744</v>
+        <v>1.031864690652913</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04813329304516</v>
+        <v>1.047717845659667</v>
       </c>
       <c r="J13">
-        <v>1.033403842147944</v>
+        <v>1.032969915404152</v>
       </c>
       <c r="K13">
-        <v>1.04310197218693</v>
+        <v>1.042070934897037</v>
       </c>
       <c r="L13">
-        <v>1.036080833533012</v>
+        <v>1.035643384153233</v>
       </c>
       <c r="M13">
-        <v>1.046969125176794</v>
+        <v>1.046363784725578</v>
       </c>
       <c r="N13">
-        <v>1.01497554202829</v>
+        <v>1.016412972955034</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046827170478117</v>
+        <v>1.046348632172361</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.04161359244112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040899877787034</v>
+      </c>
+      <c r="S13">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T13">
+        <v>1.023601950600782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004607680062532</v>
+        <v>1.004100871444796</v>
       </c>
       <c r="D14">
-        <v>1.029102642203362</v>
+        <v>1.027994590091788</v>
       </c>
       <c r="E14">
-        <v>1.022027872643322</v>
+        <v>1.021534191676544</v>
       </c>
       <c r="F14">
-        <v>1.033186540569502</v>
+        <v>1.032525028044244</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048358740697546</v>
+        <v>1.047910667621832</v>
       </c>
       <c r="J14">
-        <v>1.033825404594798</v>
+        <v>1.033339450698122</v>
       </c>
       <c r="K14">
-        <v>1.043512108727992</v>
+        <v>1.042423502242855</v>
       </c>
       <c r="L14">
-        <v>1.036562438047377</v>
+        <v>1.03607757052365</v>
       </c>
       <c r="M14">
-        <v>1.047524803296766</v>
+        <v>1.046874774926851</v>
       </c>
       <c r="N14">
-        <v>1.015133234223196</v>
+        <v>1.016451794344245</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047438721382193</v>
+        <v>1.046924924770336</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041904979764714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041150696371524</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023686967521223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005013148041319</v>
+        <v>1.004480021160171</v>
       </c>
       <c r="D15">
-        <v>1.029386888370343</v>
+        <v>1.028250583612949</v>
       </c>
       <c r="E15">
-        <v>1.022346394350764</v>
+        <v>1.021829517606361</v>
       </c>
       <c r="F15">
-        <v>1.03351471194724</v>
+        <v>1.032831208303578</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048463051975397</v>
+        <v>1.047999428489649</v>
       </c>
       <c r="J15">
-        <v>1.034029014848078</v>
+        <v>1.033517637812372</v>
       </c>
       <c r="K15">
-        <v>1.043706131936733</v>
+        <v>1.042589619398392</v>
       </c>
       <c r="L15">
-        <v>1.036789188292924</v>
+        <v>1.036281469011392</v>
       </c>
       <c r="M15">
-        <v>1.047762530360162</v>
+        <v>1.047090802609471</v>
       </c>
       <c r="N15">
-        <v>1.015205590058164</v>
+        <v>1.016460563849671</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.047663954744444</v>
+        <v>1.047133020352623</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042047977204997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041274532502646</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023723213466326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007128960633529</v>
+        <v>1.00647664568641</v>
       </c>
       <c r="D16">
-        <v>1.030791061795403</v>
+        <v>1.029524996654809</v>
       </c>
       <c r="E16">
-        <v>1.023920067687374</v>
+        <v>1.023299095242178</v>
       </c>
       <c r="F16">
-        <v>1.035020064711963</v>
+        <v>1.034236354446182</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048926059276351</v>
+        <v>1.048392785218629</v>
       </c>
       <c r="J16">
-        <v>1.034986671082787</v>
+        <v>1.034359664257674</v>
       </c>
       <c r="K16">
-        <v>1.044590659226873</v>
+        <v>1.043345699287733</v>
       </c>
       <c r="L16">
-        <v>1.037835013146505</v>
+        <v>1.037224563899537</v>
       </c>
       <c r="M16">
-        <v>1.04874964650679</v>
+        <v>1.047978855780882</v>
       </c>
       <c r="N16">
-        <v>1.015525406260464</v>
+        <v>1.016478229910374</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.048405669494027</v>
+        <v>1.047796418458113</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042676499186815</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041812539069596</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023867249629194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.008359208778157</v>
+        <v>1.007650751226433</v>
       </c>
       <c r="D17">
-        <v>1.031577188533657</v>
+        <v>1.030247349641576</v>
       </c>
       <c r="E17">
-        <v>1.024797303938517</v>
+        <v>1.024127429526852</v>
       </c>
       <c r="F17">
-        <v>1.035802593844635</v>
+        <v>1.034970583264444</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049161118214657</v>
+        <v>1.048594718513887</v>
       </c>
       <c r="J17">
-        <v>1.035499902102363</v>
+        <v>1.034818064296857</v>
       </c>
       <c r="K17">
-        <v>1.04505331695128</v>
+        <v>1.043745033768237</v>
       </c>
       <c r="L17">
-        <v>1.038384081057964</v>
+        <v>1.03772524140699</v>
       </c>
       <c r="M17">
-        <v>1.04921070259295</v>
+        <v>1.048392029217113</v>
       </c>
       <c r="N17">
-        <v>1.015687839175407</v>
+        <v>1.016499824325524</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048641822893171</v>
+        <v>1.047994660482612</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04300617647696</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042097693265503</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02393370735529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008932216109987</v>
+        <v>1.008208577318535</v>
       </c>
       <c r="D18">
-        <v>1.031884817856452</v>
+        <v>1.030536572732603</v>
       </c>
       <c r="E18">
-        <v>1.025135966334444</v>
+        <v>1.024453481140447</v>
       </c>
       <c r="F18">
-        <v>1.035999567929093</v>
+        <v>1.035153987352907</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049212357183801</v>
+        <v>1.048637513867901</v>
       </c>
       <c r="J18">
-        <v>1.035661970924835</v>
+        <v>1.034965021493421</v>
       </c>
       <c r="K18">
-        <v>1.045174974540462</v>
+        <v>1.043848231119465</v>
       </c>
       <c r="L18">
-        <v>1.038534481111863</v>
+        <v>1.03786305582359</v>
       </c>
       <c r="M18">
-        <v>1.04922454583266</v>
+        <v>1.048392305331207</v>
       </c>
       <c r="N18">
-        <v>1.015723280963957</v>
+        <v>1.01648480641726</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04841665889293</v>
+        <v>1.047758636171661</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043080659275665</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042157989811005</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023931801319796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008923183234046</v>
+        <v>1.008215504239407</v>
       </c>
       <c r="D19">
-        <v>1.031777675315426</v>
+        <v>1.03044761605782</v>
       </c>
       <c r="E19">
-        <v>1.024997477623722</v>
+        <v>1.024330226257171</v>
       </c>
       <c r="F19">
-        <v>1.035676231032522</v>
+        <v>1.034844335394166</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049109235534483</v>
+        <v>1.04854533761387</v>
       </c>
       <c r="J19">
-        <v>1.035520588207665</v>
+        <v>1.034838857739437</v>
       </c>
       <c r="K19">
-        <v>1.045007810689035</v>
+        <v>1.043698855381443</v>
       </c>
       <c r="L19">
-        <v>1.038335927861079</v>
+        <v>1.037679435415685</v>
       </c>
       <c r="M19">
-        <v>1.048844907834389</v>
+        <v>1.048026076841666</v>
       </c>
       <c r="N19">
-        <v>1.015651683990197</v>
+        <v>1.016422639271032</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047793439850503</v>
+        <v>1.047145811004143</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042968809263861</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042059341452609</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023873799550516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007271545568364</v>
+        <v>1.006664499591865</v>
       </c>
       <c r="D20">
-        <v>1.030493944664238</v>
+        <v>1.029281892186917</v>
       </c>
       <c r="E20">
-        <v>1.023523425909174</v>
+        <v>1.022947447260862</v>
       </c>
       <c r="F20">
-        <v>1.033921647167779</v>
+        <v>1.033177928392365</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048569376046874</v>
+        <v>1.04806951589184</v>
       </c>
       <c r="J20">
-        <v>1.034525010723266</v>
+        <v>1.033940911431841</v>
       </c>
       <c r="K20">
-        <v>1.044020981163709</v>
+        <v>1.0428286812635</v>
       </c>
       <c r="L20">
-        <v>1.037164882206733</v>
+        <v>1.036598447937779</v>
       </c>
       <c r="M20">
-        <v>1.047393144807197</v>
+        <v>1.046661436278372</v>
       </c>
       <c r="N20">
-        <v>1.015277721951784</v>
+        <v>1.016216271099513</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046121376291605</v>
+        <v>1.045542310510505</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042274980101633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041448380947417</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023655022101049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003305743679064</v>
+        <v>1.002941943241223</v>
       </c>
       <c r="D21">
-        <v>1.027817026435707</v>
+        <v>1.026866180364022</v>
       </c>
       <c r="E21">
-        <v>1.020514632732244</v>
+        <v>1.020152914496921</v>
       </c>
       <c r="F21">
-        <v>1.03097531772132</v>
+        <v>1.030435445688402</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047654992433803</v>
+        <v>1.047298406280837</v>
       </c>
       <c r="J21">
-        <v>1.032665900364345</v>
+        <v>1.032317175905207</v>
       </c>
       <c r="K21">
-        <v>1.042289889206752</v>
+        <v>1.041355835283424</v>
       </c>
       <c r="L21">
-        <v>1.035117500284171</v>
+        <v>1.034762284600747</v>
       </c>
       <c r="M21">
-        <v>1.045392692361445</v>
+        <v>1.044862274131952</v>
       </c>
       <c r="N21">
-        <v>1.014643034798026</v>
+        <v>1.016191508860028</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.044497650802307</v>
+        <v>1.044077862527989</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041054249324963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040410563962119</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023362558631365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000784843109471</v>
+        <v>1.000574198167281</v>
       </c>
       <c r="D22">
-        <v>1.02612393146848</v>
+        <v>1.02533761034795</v>
       </c>
       <c r="E22">
-        <v>1.018619372118955</v>
+        <v>1.018392625088703</v>
       </c>
       <c r="F22">
-        <v>1.029136258050663</v>
+        <v>1.02872486702353</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047071189667193</v>
+        <v>1.046804897061747</v>
       </c>
       <c r="J22">
-        <v>1.031490627088916</v>
+        <v>1.031289209628435</v>
       </c>
       <c r="K22">
-        <v>1.041195044424834</v>
+        <v>1.040423298161711</v>
       </c>
       <c r="L22">
-        <v>1.033830784706521</v>
+        <v>1.033608318824992</v>
       </c>
       <c r="M22">
-        <v>1.044151804493578</v>
+        <v>1.043747977143426</v>
       </c>
       <c r="N22">
-        <v>1.014242594375307</v>
+        <v>1.016170091994835</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.04351557600115</v>
+        <v>1.043195974989023</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.04026676314279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039736533760621</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023176340684274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002116785388077</v>
+        <v>1.001814950428354</v>
       </c>
       <c r="D23">
-        <v>1.027012387466639</v>
+        <v>1.02613127149911</v>
       </c>
       <c r="E23">
-        <v>1.019618464446678</v>
+        <v>1.019311662655611</v>
       </c>
       <c r="F23">
-        <v>1.03010532944423</v>
+        <v>1.029618736141306</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047376288132183</v>
+        <v>1.047057152894808</v>
       </c>
       <c r="J23">
-        <v>1.032107482096775</v>
+        <v>1.031818488938989</v>
       </c>
       <c r="K23">
-        <v>1.041766191297497</v>
+        <v>1.040900997439721</v>
       </c>
       <c r="L23">
-        <v>1.03450699126735</v>
+        <v>1.034205834669899</v>
       </c>
       <c r="M23">
-        <v>1.044803522668315</v>
+        <v>1.044325649466274</v>
       </c>
       <c r="N23">
-        <v>1.014451898668243</v>
+        <v>1.016137236073544</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044031364911518</v>
+        <v>1.04365316205562</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.04066102687842</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040063785061367</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023269637831885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007286531215715</v>
+        <v>1.006680558635689</v>
       </c>
       <c r="D24">
-        <v>1.030481207284219</v>
+        <v>1.029270243879879</v>
       </c>
       <c r="E24">
-        <v>1.023514277798201</v>
+        <v>1.022939406959841</v>
       </c>
       <c r="F24">
-        <v>1.033886455143315</v>
+        <v>1.033143633255793</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048552853250894</v>
+        <v>1.048053815756755</v>
       </c>
       <c r="J24">
-        <v>1.03450694876899</v>
+        <v>1.033923849195619</v>
       </c>
       <c r="K24">
-        <v>1.04399337921128</v>
+        <v>1.042802126008801</v>
       </c>
       <c r="L24">
-        <v>1.03714066742824</v>
+        <v>1.036575310617601</v>
       </c>
       <c r="M24">
-        <v>1.047343519241434</v>
+        <v>1.04661267883274</v>
       </c>
       <c r="N24">
-        <v>1.015267511114625</v>
+        <v>1.0162047625579</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046041589351094</v>
+        <v>1.045463182343795</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042228292800444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041399761696193</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023643941231156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013112618206732</v>
+        <v>1.012301995259598</v>
       </c>
       <c r="D25">
-        <v>1.034411838934724</v>
+        <v>1.032931891306613</v>
       </c>
       <c r="E25">
-        <v>1.027934763234801</v>
+        <v>1.027174481348679</v>
       </c>
       <c r="F25">
-        <v>1.038180552588019</v>
+        <v>1.037246143591879</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049848473424435</v>
+        <v>1.04921417671479</v>
       </c>
       <c r="J25">
-        <v>1.037206607625866</v>
+        <v>1.036422324303265</v>
       </c>
       <c r="K25">
-        <v>1.04649844964408</v>
+        <v>1.045039620653667</v>
       </c>
       <c r="L25">
-        <v>1.040114370317829</v>
+        <v>1.039365101884483</v>
       </c>
       <c r="M25">
-        <v>1.050213727943297</v>
+        <v>1.049292521859574</v>
       </c>
       <c r="N25">
-        <v>1.016185041175014</v>
+        <v>1.016830979253109</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048313146309034</v>
+        <v>1.047584080891774</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043996640489318</v>
+        <v>1.042978619293984</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024087108831644</v>
       </c>
     </row>
   </sheetData>
